--- a/Excel-XLSX/UN-BDI.xlsx
+++ b/Excel-XLSX/UN-BDI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="706">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>g0Xx6k</t>
+    <t>IIeId4</t>
   </si>
   <si>
     <t>1961</t>
@@ -2100,19 +2100,19 @@
     <t>2024</t>
   </si>
   <si>
-    <t>7484</t>
-  </si>
-  <si>
-    <t>1283</t>
+    <t>6877</t>
+  </si>
+  <si>
+    <t>1281</t>
   </si>
   <si>
     <t>331</t>
   </si>
   <si>
-    <t>86268</t>
-  </si>
-  <si>
-    <t>2032</t>
+    <t>88199</t>
+  </si>
+  <si>
+    <t>1946</t>
   </si>
   <si>
     <t>332</t>
@@ -2124,13 +2124,16 @@
     <t>334</t>
   </si>
   <si>
-    <t>817</t>
+    <t>823</t>
   </si>
   <si>
     <t>335</t>
   </si>
   <si>
     <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
   </si>
 </sst>
 </file>
@@ -2515,7 +2518,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V338"/>
+  <dimension ref="A1:V339"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -25078,7 +25081,7 @@
         <v>698</v>
       </c>
       <c r="P332" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q332" s="2" t="s">
         <v>32</v>
@@ -25279,7 +25282,7 @@
         <v>702</v>
       </c>
       <c r="O335" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P335" s="2" t="s">
         <v>32</v>
@@ -25388,16 +25391,16 @@
         <v>693</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>445</v>
+        <v>633</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>446</v>
+        <v>634</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>447</v>
+        <v>634</v>
       </c>
       <c r="J337" s="2" t="s">
         <v>28</v>
@@ -25412,7 +25415,7 @@
         <v>30</v>
       </c>
       <c r="N337" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="O337" s="2" t="s">
         <v>32</v>
@@ -25427,7 +25430,7 @@
         <v>32</v>
       </c>
       <c r="S337" s="2" t="s">
-        <v>690</v>
+        <v>32</v>
       </c>
       <c r="T337" s="2" t="s">
         <v>32</v>
@@ -25456,54 +25459,122 @@
         <v>693</v>
       </c>
       <c r="F338" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J338" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K338" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L338" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M338" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N338" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O338" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P338" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q338" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R338" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S338" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="T338" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U338" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V338" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="F339" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G338" s="1" t="s">
+      <c r="G339" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H338" s="1" t="s">
+      <c r="H339" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I338" s="1" t="s">
+      <c r="I339" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J338" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K338" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L338" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M338" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N338" s="2" t="s">
+      <c r="J339" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K339" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L339" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M339" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N339" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O338" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P338" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q338" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R338" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S338" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T338" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U338" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V338" s="2" t="s">
+      <c r="O339" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P339" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q339" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R339" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S339" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T339" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U339" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V339" s="2" t="s">
         <v>32</v>
       </c>
     </row>
